--- a/data/processed/state_overviews/missouri_overview.xlsx
+++ b/data/processed/state_overviews/missouri_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1959</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1,959</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Adair County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>17</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Andrew County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>3</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Atchison County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Audrain County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>5</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Barry County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>8</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Barton County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>2</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Bates County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>3</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Benton County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Bollinger County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>2</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Boone County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>84</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Buchanan County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>42</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Butler County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>10</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Caldwell County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Callaway County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>11</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Camden County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>10</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Cape Girardeau County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>34</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Carroll County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>6</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Carter County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>2</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Cass County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>13</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Cedar County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>2</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Chariton County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>1</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Christian County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>9</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Clark County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>3</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Clay County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>37</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Clinton County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>3</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Cole County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>44</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Cooper County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>6</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Crawford County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>2</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Dade County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>1</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Dallas County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>4</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Daviess County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>2</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>DeKalb County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>2</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Dent County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>4</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Douglas County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>2</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Dunklin County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>9</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Franklin County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>17</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Gasconade County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>6</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Gentry County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>3</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Greene County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>97</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Grundy County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>5</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Harrison County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>3</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Henry County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>6</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Hickory County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>2</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Holt County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>1</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Howard County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>4</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Howell County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>13</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>Iron County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>4</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>Jackson County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>322</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>Jasper County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>27</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>Jefferson County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>14</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>Johnson County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>10</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Laclede County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>7</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Lafayette County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>11</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,8 +2162,10 @@
           <t>Lawrence County</t>
         </is>
       </c>
-      <c r="B55">
-        <v>3</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2084,8 +2194,10 @@
           <t>Lewis County</t>
         </is>
       </c>
-      <c r="B56">
-        <v>4</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2114,8 +2226,10 @@
           <t>Lincoln County</t>
         </is>
       </c>
-      <c r="B57">
-        <v>6</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2144,8 +2258,10 @@
           <t>Linn County</t>
         </is>
       </c>
-      <c r="B58">
-        <v>4</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2174,8 +2290,10 @@
           <t>Livingston County</t>
         </is>
       </c>
-      <c r="B59">
-        <v>10</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2204,8 +2322,10 @@
           <t>Macon County</t>
         </is>
       </c>
-      <c r="B60">
-        <v>4</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2234,8 +2354,10 @@
           <t>Madison County</t>
         </is>
       </c>
-      <c r="B61">
-        <v>3</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2264,8 +2386,10 @@
           <t>Marion County</t>
         </is>
       </c>
-      <c r="B62">
-        <v>14</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2294,8 +2418,10 @@
           <t>Mercer County</t>
         </is>
       </c>
-      <c r="B63">
-        <v>1</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2324,8 +2450,10 @@
           <t>Miller County</t>
         </is>
       </c>
-      <c r="B64">
-        <v>2</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2354,8 +2482,10 @@
           <t>Mississippi County</t>
         </is>
       </c>
-      <c r="B65">
-        <v>5</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2384,8 +2514,10 @@
           <t>Moniteau County</t>
         </is>
       </c>
-      <c r="B66">
-        <v>1</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2414,8 +2546,10 @@
           <t>Monroe County</t>
         </is>
       </c>
-      <c r="B67">
-        <v>4</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2444,8 +2578,10 @@
           <t>Morgan County</t>
         </is>
       </c>
-      <c r="B68">
-        <v>6</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2474,8 +2610,10 @@
           <t>New Madrid County</t>
         </is>
       </c>
-      <c r="B69">
-        <v>2</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2504,8 +2642,10 @@
           <t>Newton County</t>
         </is>
       </c>
-      <c r="B70">
-        <v>8</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2534,8 +2674,10 @@
           <t>Nodaway County</t>
         </is>
       </c>
-      <c r="B71">
-        <v>10</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2564,8 +2706,10 @@
           <t>Oregon County</t>
         </is>
       </c>
-      <c r="B72">
-        <v>1</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2594,8 +2738,10 @@
           <t>Osage County</t>
         </is>
       </c>
-      <c r="B73">
-        <v>2</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2624,8 +2770,10 @@
           <t>Pemiscot County</t>
         </is>
       </c>
-      <c r="B74">
-        <v>4</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2654,8 +2802,10 @@
           <t>Perry County</t>
         </is>
       </c>
-      <c r="B75">
-        <v>7</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2684,8 +2834,10 @@
           <t>Pettis County</t>
         </is>
       </c>
-      <c r="B76">
-        <v>13</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2714,8 +2866,10 @@
           <t>Phelps County</t>
         </is>
       </c>
-      <c r="B77">
-        <v>17</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2744,8 +2898,10 @@
           <t>Pike County</t>
         </is>
       </c>
-      <c r="B78">
-        <v>4</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2774,8 +2930,10 @@
           <t>Platte County</t>
         </is>
       </c>
-      <c r="B79">
-        <v>24</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2804,8 +2962,10 @@
           <t>Polk County</t>
         </is>
       </c>
-      <c r="B80">
-        <v>7</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2834,8 +2994,10 @@
           <t>Pulaski County</t>
         </is>
       </c>
-      <c r="B81">
-        <v>9</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2864,8 +3026,10 @@
           <t>Ralls County</t>
         </is>
       </c>
-      <c r="B82">
-        <v>2</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2894,8 +3058,10 @@
           <t>Randolph County</t>
         </is>
       </c>
-      <c r="B83">
-        <v>12</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2924,8 +3090,10 @@
           <t>Ray County</t>
         </is>
       </c>
-      <c r="B84">
-        <v>4</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2954,8 +3122,10 @@
           <t>Reynolds County</t>
         </is>
       </c>
-      <c r="B85">
-        <v>5</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2984,8 +3154,10 @@
           <t>Ripley County</t>
         </is>
       </c>
-      <c r="B86">
-        <v>3</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3014,8 +3186,10 @@
           <t>Saline County</t>
         </is>
       </c>
-      <c r="B87">
-        <v>12</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3044,8 +3218,10 @@
           <t>Schuyler County</t>
         </is>
       </c>
-      <c r="B88">
-        <v>1</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3074,8 +3250,10 @@
           <t>Scotland County</t>
         </is>
       </c>
-      <c r="B89">
-        <v>3</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3104,8 +3282,10 @@
           <t>Scott County</t>
         </is>
       </c>
-      <c r="B90">
-        <v>13</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -3134,8 +3314,10 @@
           <t>Shannon County</t>
         </is>
       </c>
-      <c r="B91">
-        <v>3</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3164,8 +3346,10 @@
           <t>Shelby County</t>
         </is>
       </c>
-      <c r="B92">
-        <v>3</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3194,8 +3378,10 @@
           <t>St. Charles County</t>
         </is>
       </c>
-      <c r="B93">
-        <v>35</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -3224,8 +3410,10 @@
           <t>St. Clair County</t>
         </is>
       </c>
-      <c r="B94">
-        <v>2</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3254,8 +3442,10 @@
           <t>St. Francois County</t>
         </is>
       </c>
-      <c r="B95">
-        <v>9</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3284,8 +3474,10 @@
           <t>St. Louis County</t>
         </is>
       </c>
-      <c r="B96">
-        <v>411</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3314,8 +3506,10 @@
           <t>St. Louis city</t>
         </is>
       </c>
-      <c r="B97">
-        <v>260</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3344,8 +3538,10 @@
           <t>Ste. Genevieve County</t>
         </is>
       </c>
-      <c r="B98">
-        <v>6</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -3374,8 +3570,10 @@
           <t>Stoddard County</t>
         </is>
       </c>
-      <c r="B99">
-        <v>3</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -3404,8 +3602,10 @@
           <t>Stone County</t>
         </is>
       </c>
-      <c r="B100">
-        <v>6</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -3434,8 +3634,10 @@
           <t>Sullivan County</t>
         </is>
       </c>
-      <c r="B101">
-        <v>1</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3464,8 +3666,10 @@
           <t>Taney County</t>
         </is>
       </c>
-      <c r="B102">
-        <v>17</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3494,8 +3698,10 @@
           <t>Texas County</t>
         </is>
       </c>
-      <c r="B103">
-        <v>7</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3524,8 +3730,10 @@
           <t>Vernon County</t>
         </is>
       </c>
-      <c r="B104">
-        <v>4</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3554,8 +3762,10 @@
           <t>Warren County</t>
         </is>
       </c>
-      <c r="B105">
-        <v>7</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3584,8 +3794,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B106">
-        <v>2</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3614,8 +3826,10 @@
           <t>Wayne County</t>
         </is>
       </c>
-      <c r="B107">
-        <v>4</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3644,8 +3858,10 @@
           <t>Webster County</t>
         </is>
       </c>
-      <c r="B108">
-        <v>4</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3674,8 +3890,10 @@
           <t>Wright County</t>
         </is>
       </c>
-      <c r="B109">
-        <v>4</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3704,27 +3922,29 @@
           <t>Maries County</t>
         </is>
       </c>
-      <c r="B110">
-        <v>0</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -3734,27 +3954,29 @@
           <t>McDonald County</t>
         </is>
       </c>
-      <c r="B111">
-        <v>0</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -3764,27 +3986,61 @@
           <t>Ozark County</t>
         </is>
       </c>
-      <c r="B112">
-        <v>0</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1,959</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>$3,985,106,420</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>7.82%</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>-12.22%</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>68.25%</t>
         </is>
       </c>
     </row>
@@ -3839,8 +4095,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>526</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3869,8 +4127,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>172</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3899,8 +4159,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>148</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3929,8 +4191,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B5">
-        <v>183</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3959,8 +4223,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B6">
-        <v>341</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3989,8 +4255,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B7">
-        <v>228</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4019,8 +4287,10 @@
           <t>Congressional District 7</t>
         </is>
       </c>
-      <c r="B8">
-        <v>176</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4049,8 +4319,10 @@
           <t>Congressional District 8</t>
         </is>
       </c>
-      <c r="B9">
-        <v>185</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -4079,8 +4351,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B10">
-        <v>1959</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1,959</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -4154,8 +4428,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>535</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4184,8 +4460,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>511</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -4214,8 +4492,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>294</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4244,8 +4524,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>132</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4274,8 +4556,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>394</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4304,8 +4588,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>93</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4334,8 +4620,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1959</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1,959</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4409,8 +4697,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>154</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4439,8 +4729,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>135</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -4469,8 +4761,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>59</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4499,8 +4793,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>204</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4529,8 +4825,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>69</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4559,8 +4857,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>652</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4589,8 +4889,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>12</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4619,8 +4921,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>172</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -4649,8 +4953,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>50</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -4679,8 +4985,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>426</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -4709,8 +5017,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>26</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -4739,8 +5049,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>1959</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1,959</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/missouri_overview.xlsx
+++ b/data/processed/state_overviews/missouri_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,155 +431,155 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Adair County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$26,999,998</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.74%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-20.64%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>76.47%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Andrew County</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1,959</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$481,369</t>
+          <t>$3,985,106,420</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.11%</t>
+          <t>7.82%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-39.29%</t>
+          <t>-12.22%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>68.25%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Atchison County</t>
+          <t>Adair County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$765,171</t>
+          <t>$26,999,998</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.08%</t>
+          <t>1.74%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-7.35%</t>
+          <t>-20.64%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>76.47%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Audrain County</t>
+          <t>Andrew County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$4,489,646</t>
+          <t>$481,369</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.21%</t>
+          <t>22.11%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-19.89%</t>
+          <t>-39.29%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -591,59 +591,59 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Barry County</t>
+          <t>Atchison County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,891,481</t>
+          <t>$765,171</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.89%</t>
+          <t>3.08%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-3.10%</t>
+          <t>-7.35%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Barton County</t>
+          <t>Audrain County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$781,173</t>
+          <t>$4,489,646</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14.57%</t>
+          <t>10.21%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-43.24%</t>
+          <t>-19.89%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -655,59 +655,59 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bates County</t>
+          <t>Barry County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$403,224</t>
+          <t>$1,891,481</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-6.63%</t>
+          <t>19.89%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-9.98%</t>
+          <t>-3.10%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Benton County</t>
+          <t>Barton County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$22,834</t>
+          <t>$781,173</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-0.21%</t>
+          <t>14.57%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-13.15%</t>
+          <t>-43.24%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -719,359 +719,359 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bollinger County</t>
+          <t>Bates County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$103,295</t>
+          <t>$403,224</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-200.52%</t>
+          <t>-6.63%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-234.36%</t>
+          <t>-9.98%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Boone County</t>
+          <t>Benton County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$91,302,804</t>
+          <t>$22,834</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17.80%</t>
+          <t>-0.21%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-5.32%</t>
+          <t>-13.15%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Buchanan County</t>
+          <t>Bollinger County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$41,493,838</t>
+          <t>$103,295</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.91%</t>
+          <t>-200.52%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-15.23%</t>
+          <t>-234.36%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Butler County</t>
+          <t>Boone County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$3,070,392</t>
+          <t>$91,302,804</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.49%</t>
+          <t>17.80%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-27.20%</t>
+          <t>-5.32%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>90.00%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Caldwell County</t>
+          <t>Buchanan County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$59,167</t>
+          <t>$41,493,838</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-6.43%</t>
+          <t>8.91%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-39.19%</t>
+          <t>-15.23%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Callaway County</t>
+          <t>Butler County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$14,373,169</t>
+          <t>$3,070,392</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7.07%</t>
+          <t>8.49%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-21.97%</t>
+          <t>-27.20%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>81.82%</t>
+          <t>90.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Camden County</t>
+          <t>Caldwell County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$10,733,534</t>
+          <t>$59,167</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8.84%</t>
+          <t>-6.43%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-17.13%</t>
+          <t>-39.19%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>90.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cape Girardeau County</t>
+          <t>Callaway County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$60,531,550</t>
+          <t>$14,373,169</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.71%</t>
+          <t>7.07%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-19.00%</t>
+          <t>-21.97%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>79.41%</t>
+          <t>81.82%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Carroll County</t>
+          <t>Camden County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$2,011,907</t>
+          <t>$10,733,534</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7.35%</t>
+          <t>8.84%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-28.92%</t>
+          <t>-17.13%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>90.00%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Carter County</t>
+          <t>Cape Girardeau County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$248,016</t>
+          <t>$60,531,550</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-9.42%</t>
+          <t>8.71%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-52.98%</t>
+          <t>-19.00%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>79.41%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cass County</t>
+          <t>Carroll County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$10,657,172</t>
+          <t>$2,011,907</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>17.52%</t>
+          <t>7.35%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-1.37%</t>
+          <t>-28.92%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>53.85%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cedar County</t>
+          <t>Carter County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1081,157 +1081,157 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$8,512</t>
+          <t>$248,016</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.77%</t>
+          <t>-9.42%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.05%</t>
+          <t>-52.98%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chariton County</t>
+          <t>Cass County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$140,000</t>
+          <t>$10,657,172</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-11.47%</t>
+          <t>17.52%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-62.38%</t>
+          <t>-1.37%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>53.85%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Christian County</t>
+          <t>Cedar County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$2,746,273</t>
+          <t>$8,512</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>4.77%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-19.19%</t>
+          <t>2.05%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>88.89%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Clark County</t>
+          <t>Chariton County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$172,522</t>
+          <t>$140,000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9.42%</t>
+          <t>-11.47%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-1.14%</t>
+          <t>-62.38%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Clay County</t>
+          <t>Christian County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$22,499,037</t>
+          <t>$2,746,273</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11.87%</t>
+          <t>10.80%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-8.62%</t>
+          <t>-19.19%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>59.46%</t>
+          <t>88.89%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Clinton County</t>
+          <t>Clark County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1241,241 +1241,241 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$1,088,484</t>
+          <t>$172,522</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.72%</t>
+          <t>9.42%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-68.32%</t>
+          <t>-1.14%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cole County</t>
+          <t>Clay County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$54,685,110</t>
+          <t>$22,499,037</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.63%</t>
+          <t>11.87%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-30.14%</t>
+          <t>-8.62%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>79.55%</t>
+          <t>59.46%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Cooper County</t>
+          <t>Clinton County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$1,302,855</t>
+          <t>$1,088,484</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>16.58%</t>
+          <t>4.72%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-1.52%</t>
+          <t>-68.32%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Crawford County</t>
+          <t>Cole County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$213,859</t>
+          <t>$54,685,110</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>7.63%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-46.07%</t>
+          <t>-30.14%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>79.55%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Dade County</t>
+          <t>Cooper County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$114,275</t>
+          <t>$1,302,855</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12.31%</t>
+          <t>16.58%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-1.29%</t>
+          <t>-1.52%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Dallas County</t>
+          <t>Crawford County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$127,345</t>
+          <t>$213,859</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17.64%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-7.57%</t>
+          <t>-46.07%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Daviess County</t>
+          <t>Dade County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$1,698,853</t>
+          <t>$114,275</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>15.43%</t>
+          <t>12.31%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-34.22%</t>
+          <t>-1.29%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DeKalb County</t>
+          <t>Dallas County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$131,349</t>
+          <t>$127,345</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8.35%</t>
+          <t>17.64%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-0.81%</t>
+          <t>-7.57%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1487,39 +1487,39 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Dent County</t>
+          <t>Daviess County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$633,918</t>
+          <t>$1,698,853</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.46%</t>
+          <t>15.43%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-18.18%</t>
+          <t>-34.22%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Douglas County</t>
+          <t>DeKalb County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1529,413 +1529,413 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$6,499,391</t>
+          <t>$131,349</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5.25%</t>
+          <t>8.35%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-29.45%</t>
+          <t>-0.81%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Dunklin County</t>
+          <t>Dent County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$59,249,511</t>
+          <t>$633,918</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3.80%</t>
+          <t>4.46%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-56.34%</t>
+          <t>-18.18%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>88.89%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Franklin County</t>
+          <t>Douglas County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$12,850,396</t>
+          <t>$6,499,391</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5.99%</t>
+          <t>5.25%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-19.63%</t>
+          <t>-29.45%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>82.35%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Gasconade County</t>
+          <t>Dunklin County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$512,334</t>
+          <t>$59,249,511</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-6.62%</t>
+          <t>3.80%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-21.29%</t>
+          <t>-56.34%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>88.89%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Gentry County</t>
+          <t>Franklin County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$4,025,952</t>
+          <t>$12,850,396</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>5.99%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-65.27%</t>
+          <t>-19.63%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>82.35%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Greene County</t>
+          <t>Gasconade County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$224,944,892</t>
+          <t>$512,334</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14.11%</t>
+          <t>-6.62%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-7.13%</t>
+          <t>-21.29%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>60.82%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Grundy County</t>
+          <t>Gentry County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$5,616,997</t>
+          <t>$4,025,952</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13.30%</t>
+          <t>0.39%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-55.85%</t>
+          <t>-65.27%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Harrison County</t>
+          <t>Greene County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$364,056</t>
+          <t>$224,944,892</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>9.61%</t>
+          <t>14.11%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-20.82%</t>
+          <t>-7.13%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>60.82%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Henry County</t>
+          <t>Grundy County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$424,858</t>
+          <t>$5,616,997</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-3.02%</t>
+          <t>13.30%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-75.24%</t>
+          <t>-55.85%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Hickory County</t>
+          <t>Harrison County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$5,180,048</t>
+          <t>$364,056</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-5.34%</t>
+          <t>9.61%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-24.94%</t>
+          <t>-20.82%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Holt County</t>
+          <t>Henry County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$162,591</t>
+          <t>$424,858</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>23.64%</t>
+          <t>-3.02%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-50.10%</t>
+          <t>-75.24%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Howard County</t>
+          <t>Hickory County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$7,119,983</t>
+          <t>$5,180,048</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-0.12%</t>
+          <t>-5.34%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-41.31%</t>
+          <t>-24.94%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Howell County</t>
+          <t>Holt County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$22,694,560</t>
+          <t>$162,591</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5.01%</t>
+          <t>23.64%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-6.46%</t>
+          <t>-50.10%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>69.23%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Iron County</t>
+          <t>Howard County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1945,17 +1945,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$567,730</t>
+          <t>$7,119,983</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-15.27%</t>
+          <t>-0.12%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-21.15%</t>
+          <t>-41.31%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1967,283 +1967,283 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Jackson County</t>
+          <t>Howell County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$723,824,193</t>
+          <t>$22,694,560</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>9.87%</t>
+          <t>5.01%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-11.00%</t>
+          <t>-6.46%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>64.60%</t>
+          <t>69.23%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Jasper County</t>
+          <t>Iron County</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$38,042,057</t>
+          <t>$567,730</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5.09%</t>
+          <t>-15.27%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-18.97%</t>
+          <t>-21.15%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>74.07%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Jackson County</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>322</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$8,019,807</t>
+          <t>$723,824,193</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8.23%</t>
+          <t>9.87%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-18.37%</t>
+          <t>-11.00%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>64.60%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Johnson County</t>
+          <t>Jasper County</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$7,614,925</t>
+          <t>$38,042,057</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6.81%</t>
+          <t>5.09%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-36.30%</t>
+          <t>-18.97%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>90.00%</t>
+          <t>74.07%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Laclede County</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$4,473,883</t>
+          <t>$8,019,807</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>8.23%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-95.75%</t>
+          <t>-18.37%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Lafayette County</t>
+          <t>Johnson County</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$9,251,810</t>
+          <t>$7,614,925</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3.18%</t>
+          <t>6.81%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-24.93%</t>
+          <t>-36.30%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>90.91%</t>
+          <t>90.00%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Lawrence County</t>
+          <t>Laclede County</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$2,389,129</t>
+          <t>$4,473,883</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>13.63%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-0.63%</t>
+          <t>-95.75%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Lewis County</t>
+          <t>Lafayette County</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$2,872,431</t>
+          <t>$9,251,810</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-3.31%</t>
+          <t>3.18%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-33.17%</t>
+          <t>-24.93%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>90.91%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Lincoln County</t>
+          <t>Lawrence County</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$2,419,670</t>
+          <t>$2,389,129</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10.95%</t>
+          <t>13.63%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-9.02%</t>
+          <t>-0.63%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2255,7 +2255,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Linn County</t>
+          <t>Lewis County</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2265,17 +2265,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$1,771,125</t>
+          <t>$2,872,431</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3.00%</t>
+          <t>-3.31%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-46.33%</t>
+          <t>-33.17%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2287,39 +2287,39 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Livingston County</t>
+          <t>Lincoln County</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$2,801,099</t>
+          <t>$2,419,670</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4.37%</t>
+          <t>10.95%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-23.02%</t>
+          <t>-9.02%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Macon County</t>
+          <t>Linn County</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2329,177 +2329,177 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$572,709</t>
+          <t>$1,771,125</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>6.66%</t>
+          <t>3.00%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-16.09%</t>
+          <t>-46.33%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Madison County</t>
+          <t>Livingston County</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$5,057,299</t>
+          <t>$2,801,099</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2.78%</t>
+          <t>4.37%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-12.19%</t>
+          <t>-23.02%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Marion County</t>
+          <t>Macon County</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$20,255,554</t>
+          <t>$572,709</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3.36%</t>
+          <t>6.66%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2.63%</t>
+          <t>-16.09%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Mercer County</t>
+          <t>Madison County</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$12,000</t>
+          <t>$5,057,299</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4.97%</t>
+          <t>2.78%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>-12.19%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Miller County</t>
+          <t>Marion County</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$364,349</t>
+          <t>$20,255,554</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>17.13%</t>
+          <t>3.36%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-23.61%</t>
+          <t>2.63%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>42.86%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Mississippi County</t>
+          <t>Mercer County</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$4,286,887</t>
+          <t>$12,000</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-7.68%</t>
+          <t>4.97%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-92.07%</t>
+          <t>-0.29%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2511,59 +2511,59 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Moniteau County</t>
+          <t>Miller County</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$18,303</t>
+          <t>$364,349</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-14.35%</t>
+          <t>17.13%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-34.72%</t>
+          <t>-23.61%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Monroe County</t>
+          <t>Mississippi County</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$1,376,353</t>
+          <t>$4,286,887</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4.99%</t>
+          <t>-7.68%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-45.92%</t>
+          <t>-92.07%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2575,59 +2575,59 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Morgan County</t>
+          <t>Moniteau County</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$397,966</t>
+          <t>$18,303</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3.94%</t>
+          <t>-14.35%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-23.95%</t>
+          <t>-34.72%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>New Madrid County</t>
+          <t>Monroe County</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$1,117,559</t>
+          <t>$1,376,353</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-5.30%</t>
+          <t>4.99%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-62.65%</t>
+          <t>-45.92%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2639,155 +2639,155 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Newton County</t>
+          <t>Morgan County</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$19,651,764</t>
+          <t>$397,966</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.49%</t>
+          <t>3.94%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-8.84%</t>
+          <t>-23.95%</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Nodaway County</t>
+          <t>New Madrid County</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$10,609,586</t>
+          <t>$1,117,559</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>9.28%</t>
+          <t>-5.30%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-36.80%</t>
+          <t>-62.65%</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Oregon County</t>
+          <t>Newton County</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$237,068</t>
+          <t>$19,651,764</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>30.06%</t>
+          <t>1.49%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-24.91%</t>
+          <t>-8.84%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Osage County</t>
+          <t>Nodaway County</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$29,878</t>
+          <t>$10,609,586</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-20.85%</t>
+          <t>9.28%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>-32.06%</t>
+          <t>-36.80%</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Pemiscot County</t>
+          <t>Oregon County</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$884,432</t>
+          <t>$237,068</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>5.56%</t>
+          <t>30.06%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>-56.55%</t>
+          <t>-24.91%</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2799,187 +2799,187 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Perry County</t>
+          <t>Osage County</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$1,966,596</t>
+          <t>$29,878</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>6.80%</t>
+          <t>-20.85%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>-63.20%</t>
+          <t>-32.06%</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Pettis County</t>
+          <t>Pemiscot County</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$24,194,764</t>
+          <t>$884,432</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>8.54%</t>
+          <t>5.56%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-36.79%</t>
+          <t>-56.55%</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>84.62%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Phelps County</t>
+          <t>Perry County</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$18,590,246</t>
+          <t>$1,966,596</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>9.44%</t>
+          <t>6.80%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>-9.81%</t>
+          <t>-63.20%</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>70.59%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Pike County</t>
+          <t>Pettis County</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$1,549,987</t>
+          <t>$24,194,764</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>8.00%</t>
+          <t>8.54%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>-34.13%</t>
+          <t>-36.79%</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>84.62%</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Platte County</t>
+          <t>Phelps County</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$32,931,450</t>
+          <t>$18,590,246</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>13.04%</t>
+          <t>9.44%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>-2.67%</t>
+          <t>-9.81%</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>54.17%</t>
+          <t>70.59%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Polk County</t>
+          <t>Pike County</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$15,596,249</t>
+          <t>$1,549,987</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3.52%</t>
+          <t>8.00%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>-16.20%</t>
+          <t>-34.13%</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2991,59 +2991,59 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Pulaski County</t>
+          <t>Platte County</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$21,981,917</t>
+          <t>$32,931,450</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>10.36%</t>
+          <t>13.04%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>-34.79%</t>
+          <t>-2.67%</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>88.89%</t>
+          <t>54.17%</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ralls County</t>
+          <t>Polk County</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$357,252</t>
+          <t>$15,596,249</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>47.18%</t>
+          <t>3.52%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>-9.64%</t>
+          <t>-16.20%</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3055,59 +3055,59 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Randolph County</t>
+          <t>Pulaski County</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$5,258,268</t>
+          <t>$21,981,917</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>16.46%</t>
+          <t>10.36%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>-27.66%</t>
+          <t>-34.79%</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>88.89%</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Ray County</t>
+          <t>Ralls County</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$1,673,990</t>
+          <t>$357,252</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-0.74%</t>
+          <t>47.18%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>-55.24%</t>
+          <t>-9.64%</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3119,59 +3119,59 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Reynolds County</t>
+          <t>Randolph County</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$9,645,450</t>
+          <t>$5,258,268</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11.23%</t>
+          <t>16.46%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>-7.72%</t>
+          <t>-27.66%</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ripley County</t>
+          <t>Ray County</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$578,752</t>
+          <t>$1,673,990</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2.83%</t>
+          <t>-0.74%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>-40.14%</t>
+          <t>-55.24%</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3183,59 +3183,59 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Saline County</t>
+          <t>Reynolds County</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$27,977,074</t>
+          <t>$9,645,450</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.94%</t>
+          <t>11.23%</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-24.60%</t>
+          <t>-7.72%</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Schuyler County</t>
+          <t>Ripley County</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$356,923</t>
+          <t>$578,752</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>16.28%</t>
+          <t>2.83%</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>-80.04%</t>
+          <t>-40.14%</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3247,27 +3247,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Scotland County</t>
+          <t>Saline County</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$297,370</t>
+          <t>$27,977,074</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-3.93%</t>
+          <t>2.94%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>-7.73%</t>
+          <t>-24.60%</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3279,39 +3279,39 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Scott County</t>
+          <t>Schuyler County</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$39,244,571</t>
+          <t>$356,923</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>10.44%</t>
+          <t>16.28%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>-17.86%</t>
+          <t>-80.04%</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>69.23%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Shannon County</t>
+          <t>Scotland County</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3321,285 +3321,285 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$13,313,383</t>
+          <t>$297,370</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>-3.93%</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>-60.18%</t>
+          <t>-7.73%</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Shelby County</t>
+          <t>Scott County</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$380,203</t>
+          <t>$39,244,571</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>8.20%</t>
+          <t>10.44%</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>-18.82%</t>
+          <t>-17.86%</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>69.23%</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>St. Charles County</t>
+          <t>Shannon County</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$64,374,942</t>
+          <t>$13,313,383</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>13.01%</t>
+          <t>6.84%</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.45%</t>
+          <t>-60.18%</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>48.57%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>St. Clair County</t>
+          <t>Shelby County</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$12,219,943</t>
+          <t>$380,203</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.43%</t>
+          <t>8.20%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>-54.99%</t>
+          <t>-18.82%</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>St. Francois County</t>
+          <t>St. Charles County</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$9,871,830</t>
+          <t>$64,374,942</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>6.79%</t>
+          <t>13.01%</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>-19.58%</t>
+          <t>1.45%</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>48.57%</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>St. Louis County</t>
+          <t>St. Clair County</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$793,645,321</t>
+          <t>$12,219,943</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>3.94%</t>
+          <t>1.43%</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>-5.58%</t>
+          <t>-54.99%</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>62.53%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>St. Louis city</t>
+          <t>St. Francois County</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$1,280,573,686</t>
+          <t>$9,871,830</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>9.29%</t>
+          <t>6.79%</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>-19.07%</t>
+          <t>-19.58%</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>72.69%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Ste. Genevieve County</t>
+          <t>St. Louis County</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>411</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$599,689</t>
+          <t>$793,645,321</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-0.08%</t>
+          <t>3.94%</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>-27.41%</t>
+          <t>-5.58%</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>62.53%</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Stoddard County</t>
+          <t>St. Louis city</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$593,917</t>
+          <t>$1,280,573,686</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>16.09%</t>
+          <t>9.29%</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1.77%</t>
+          <t>-19.07%</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>72.69%</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Stone County</t>
+          <t>Ste. Genevieve County</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3609,157 +3609,157 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$860,792</t>
+          <t>$599,689</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>18.82%</t>
+          <t>-0.08%</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2.11%</t>
+          <t>-27.41%</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sullivan County</t>
+          <t>Stoddard County</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$576,393</t>
+          <t>$593,917</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>7.05%</t>
+          <t>16.09%</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>-14.16%</t>
+          <t>1.77%</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Taney County</t>
+          <t>Stone County</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$9,797,511</t>
+          <t>$860,792</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>12.90%</t>
+          <t>18.82%</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>-2.36%</t>
+          <t>2.11%</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>52.94%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Texas County</t>
+          <t>Sullivan County</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$2,243,951</t>
+          <t>$576,393</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>5.61%</t>
+          <t>7.05%</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>-18.56%</t>
+          <t>-14.16%</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Vernon County</t>
+          <t>Taney County</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$4,391,716</t>
+          <t>$9,797,511</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>8.66%</t>
+          <t>12.90%</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>-13.36%</t>
+          <t>-2.36%</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>52.94%</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Warren County</t>
+          <t>Texas County</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3769,125 +3769,125 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$5,564,033</t>
+          <t>$2,243,951</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>16.15%</t>
+          <t>5.61%</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>-18.70%</t>
+          <t>-18.56%</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Vernon County</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$5,954,300</t>
+          <t>$4,391,716</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>15.49%</t>
+          <t>8.66%</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>-33.78%</t>
+          <t>-13.36%</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Wayne County</t>
+          <t>Warren County</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$338,035</t>
+          <t>$5,564,033</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>7.58%</t>
+          <t>16.15%</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>-0.65%</t>
+          <t>-18.70%</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Webster County</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$2,594,886</t>
+          <t>$5,954,300</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3.45%</t>
+          <t>15.49%</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>-26.97%</t>
+          <t>-33.78%</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Wright County</t>
+          <t>Wayne County</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3897,17 +3897,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$463,763</t>
+          <t>$338,035</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>11.20%</t>
+          <t>7.58%</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>-0.57%</t>
+          <t>-0.65%</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3919,128 +3919,64 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Maries County</t>
+          <t>Webster County</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$2,594,886</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>3.45%</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-26.97%</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>McDonald County</t>
+          <t>Wright County</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$463,763</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>11.20%</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-0.57%</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Ozark County</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>1,959</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>$3,985,106,420</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>7.82%</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>-12.22%</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>68.25%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -4051,7 +3987,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4060,320 +3996,352 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$1,914,336,827</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.98%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-10.38%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>69.01%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>1,959</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$178,541,620</t>
+          <t>$3,985,106,420</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.31%</t>
+          <t>7.82%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-6.97%</t>
+          <t>-12.22%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>59.30%</t>
+          <t>68.25%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>526</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$174,871,093</t>
+          <t>$1,914,336,827</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.19%</t>
+          <t>5.98%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-11.55%</t>
+          <t>-10.38%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67.57%</t>
+          <t>69.01%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>172</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$222,565,156</t>
+          <t>$178,541,620</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.74%</t>
+          <t>7.31%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-18.88%</t>
+          <t>-6.97%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>71.58%</t>
+          <t>59.30%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$732,202,576</t>
+          <t>$174,871,093</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.36%</t>
+          <t>9.19%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-11.86%</t>
+          <t>-11.55%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>64.52%</t>
+          <t>67.57%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>183</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$189,829,637</t>
+          <t>$222,565,156</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.24%</t>
+          <t>8.74%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-15.47%</t>
+          <t>-18.88%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>72.81%</t>
+          <t>71.58%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Congressional District 7</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>341</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$302,527,480</t>
+          <t>$732,202,576</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.66%</t>
+          <t>9.36%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-7.50%</t>
+          <t>-11.86%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>63.07%</t>
+          <t>64.52%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Congressional District 8</t>
+          <t>6th Congressional district</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$270,232,031</t>
+          <t>$189,829,637</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.28%</t>
+          <t>8.24%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-23.81%</t>
+          <t>-15.47%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>77.84%</t>
+          <t>72.81%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>7th Congressional district</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1,959</t>
+          <t>176</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$3,985,106,420</t>
+          <t>$302,527,480</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.82%</t>
+          <t>11.66%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-12.22%</t>
+          <t>-7.50%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>68.25%</t>
+          <t>63.07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>8th Congressional district</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$270,232,031</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.28%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-23.81%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>77.84%</t>
         </is>
       </c>
     </row>
@@ -4398,34 +4366,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4457,128 +4425,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>394</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$408,903,147</t>
+          <t>$3,103,692,760</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.40%</t>
+          <t>3.97%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-14.04%</t>
+          <t>-6.67%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>67.91%</t>
+          <t>67.26%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>511</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$75,378,210</t>
+          <t>$408,903,147</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.42%</t>
+          <t>8.40%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-16.02%</t>
+          <t>-14.04%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>71.77%</t>
+          <t>67.91%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>294</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$328,784,721</t>
+          <t>$75,378,210</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>8.42%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-14.99%</t>
+          <t>-16.02%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70.45%</t>
+          <t>71.77%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$3,103,692,760</t>
+          <t>$328,784,721</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.97%</t>
+          <t>7.03%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-6.67%</t>
+          <t>-14.99%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>67.26%</t>
+          <t>70.45%</t>
         </is>
       </c>
     </row>
@@ -4667,34 +4635,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4726,7 +4694,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4758,7 +4726,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4790,7 +4758,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4854,7 +4822,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4886,7 +4854,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4918,7 +4886,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4950,7 +4918,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4982,64 +4950,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$974,713,749</t>
+          <t>$833,321,505</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>6.23%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-8.37%</t>
+          <t>-4.55%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>61.54%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>426</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$833,321,505</t>
+          <t>$974,713,749</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.23%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-4.55%</t>
+          <t>-8.37%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61.54%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/missouri_overview.xlsx
+++ b/data/processed/state_overviews/missouri_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>68.25%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>1,959</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$3,985,106,420</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>7.82%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-12.22%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>68.25%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>68.25%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,959</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$3,985,106,420</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.82%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-12.22%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>68.25%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>76.47%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$26,999,998</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1.74%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-20.64%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>76.47%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$481,369</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>22.11%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-39.29%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$765,171</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>3.08%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-7.35%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$4,489,646</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>10.21%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-19.89%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,891,481</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>19.89%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-3.10%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$781,173</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>14.57%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-43.24%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$403,224</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>-6.63%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-9.98%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$22,834</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>-0.21%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-13.15%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$103,295</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>-200.52%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-234.36%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>58.33%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>84</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$91,302,804</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>17.80%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-5.32%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$41,493,838</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>8.91%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-15.23%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>90.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$3,070,392</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>8.49%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-27.20%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>90.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$59,167</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>-6.43%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-39.19%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>81.82%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$14,373,169</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>7.07%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-21.97%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>81.82%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>90.00%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$10,733,534</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>8.84%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-17.13%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>90.00%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>79.41%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$60,531,550</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>8.71%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-19.00%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>79.41%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$2,011,907</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>7.35%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-28.92%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$248,016</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>-9.42%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-52.98%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>53.85%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$10,657,172</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>17.52%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-1.37%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>53.85%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$8,512</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>4.77%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2.05%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$140,000</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>-11.47%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-62.38%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>88.89%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$2,746,273</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>10.80%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-19.19%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>88.89%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$172,522</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>9.42%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-1.14%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>59.46%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$22,499,037</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>11.87%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-8.62%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>59.46%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$1,088,484</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>4.72%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-68.32%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>79.55%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$54,685,110</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>7.63%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-30.14%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>79.55%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$1,302,855</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>16.58%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-1.52%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$213,859</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1.57%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-46.07%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$114,275</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>12.31%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-1.29%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$127,345</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>17.64%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-7.57%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$1,698,853</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>15.43%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-34.22%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$131,349</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>8.35%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-0.81%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$633,918</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>4.46%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-18.18%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$6,499,391</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>5.25%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-29.45%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>88.89%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$59,249,511</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>3.80%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-56.34%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>88.89%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>82.35%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$12,850,396</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>5.99%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-19.63%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>82.35%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$512,334</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>-6.62%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-21.29%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$4,025,952</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>0.39%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-65.27%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>60.82%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>97</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$224,944,892</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>14.11%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-7.13%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>60.82%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$5,616,997</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>13.30%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-55.85%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$364,056</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>9.61%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-20.82%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$424,858</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>-3.02%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>-75.24%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$5,180,048</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>-5.34%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-24.94%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$162,591</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>23.64%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-50.10%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$7,119,983</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>-0.12%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-41.31%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>69.23%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$22,694,560</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>5.01%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-6.46%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>69.23%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$567,730</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>-15.27%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>-21.15%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>64.60%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>322</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$723,824,193</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>9.87%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-11.00%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>64.60%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>74.07%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$38,042,057</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>5.09%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>-18.97%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>74.07%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$8,019,807</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>8.23%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>-18.37%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>90.00%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$7,614,925</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>6.81%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-36.30%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>90.00%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$4,473,883</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-95.75%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>90.91%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$9,251,810</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>3.18%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-24.93%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>90.91%</t>
         </is>
       </c>
     </row>
@@ -2228,27 +2228,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>$2,389,129</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>13.63%</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-0.63%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2260,27 +2260,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>$2,872,431</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>-3.31%</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>-33.17%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2292,27 +2292,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>$2,419,670</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>10.95%</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>-9.02%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2324,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>$1,771,125</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>3.00%</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>-46.33%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>$2,801,099</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>4.37%</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>-23.02%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2388,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>$572,709</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>6.66%</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>-16.09%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2420,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>$5,057,299</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2.78%</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>-12.19%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2452,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>$20,255,554</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>3.36%</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>2.63%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>42.86%</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>$12,000</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>4.97%</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>-0.29%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2516,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>$364,349</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>17.13%</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>-23.61%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2548,27 +2548,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>$4,286,887</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>-7.68%</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>-92.07%</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2580,27 +2580,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>$18,303</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>-14.35%</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>-34.72%</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2612,27 +2612,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>$1,376,353</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>4.99%</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>-45.92%</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2644,27 +2644,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>$397,966</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>3.94%</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>-23.95%</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2676,27 +2676,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>$1,117,559</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>-5.30%</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>-62.65%</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2708,27 +2708,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>$19,651,764</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1.49%</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>-8.84%</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>$10,609,586</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>9.28%</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>-36.80%</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -2772,27 +2772,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>$237,068</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>30.06%</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>-24.91%</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2804,27 +2804,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>$29,878</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>-20.85%</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>-32.06%</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2836,27 +2836,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>$884,432</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>5.56%</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>-56.55%</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2868,27 +2868,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>$1,966,596</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>6.80%</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>-63.20%</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -2900,27 +2900,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>84.62%</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>$24,194,764</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>8.54%</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>-36.79%</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>84.62%</t>
         </is>
       </c>
     </row>
@@ -2932,27 +2932,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>70.59%</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>$18,590,246</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>9.44%</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>-9.81%</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>70.59%</t>
         </is>
       </c>
     </row>
@@ -2964,27 +2964,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>$1,549,987</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>8.00%</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>-34.13%</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2996,27 +2996,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>54.17%</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>$32,931,450</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>13.04%</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>-2.67%</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>54.17%</t>
         </is>
       </c>
     </row>
@@ -3028,27 +3028,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>$15,596,249</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>3.52%</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>-16.20%</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3060,27 +3060,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>88.89%</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>$21,981,917</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>10.36%</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>-34.79%</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>88.89%</t>
         </is>
       </c>
     </row>
@@ -3092,27 +3092,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>$357,252</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>47.18%</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>-9.64%</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3124,27 +3124,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>$5,258,268</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>16.46%</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>-27.66%</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -3156,27 +3156,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>$1,673,990</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>-0.74%</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>-55.24%</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3188,27 +3188,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>$9,645,450</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>11.23%</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>-7.72%</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -3220,27 +3220,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>$578,752</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2.83%</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>-40.14%</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3252,27 +3252,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>$27,977,074</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2.94%</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>-24.60%</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -3284,27 +3284,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>$356,923</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>16.28%</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>-80.04%</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3316,27 +3316,27 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>$297,370</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>-3.93%</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>-7.73%</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -3348,27 +3348,27 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>69.23%</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>$39,244,571</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>10.44%</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>-17.86%</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>69.23%</t>
         </is>
       </c>
     </row>
@@ -3380,27 +3380,27 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>$13,313,383</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>6.84%</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>-60.18%</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3412,27 +3412,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>$380,203</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>8.20%</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>-18.82%</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -3444,27 +3444,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>48.57%</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>$64,374,942</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>13.01%</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1.45%</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>48.57%</t>
         </is>
       </c>
     </row>
@@ -3476,27 +3476,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>$12,219,943</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1.43%</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>-54.99%</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3508,27 +3508,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>$9,871,830</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>6.79%</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>-19.58%</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -3540,27 +3540,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>62.53%</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>411</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>$793,645,321</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>3.94%</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>-5.58%</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>62.53%</t>
         </is>
       </c>
     </row>
@@ -3572,27 +3572,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>72.69%</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>260</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>$1,280,573,686</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>9.29%</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>-19.07%</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>72.69%</t>
         </is>
       </c>
     </row>
@@ -3604,27 +3604,27 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>$599,689</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>-0.08%</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>-27.41%</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -3636,27 +3636,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>$593,917</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>16.09%</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1.77%</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -3668,27 +3668,27 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>$860,792</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>18.82%</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>2.11%</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -3700,27 +3700,27 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>$576,393</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>7.05%</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>-14.16%</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3732,27 +3732,27 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
+          <t>52.94%</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>$9,797,511</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>12.90%</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>-2.36%</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>52.94%</t>
         </is>
       </c>
     </row>
@@ -3764,27 +3764,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>$2,243,951</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>5.61%</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>-18.56%</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -3796,27 +3796,27 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>$4,391,716</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>8.66%</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>-13.36%</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -3828,27 +3828,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>$5,564,033</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>16.15%</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>-18.70%</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -3860,27 +3860,27 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>$5,954,300</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>15.49%</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>-33.78%</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3892,27 +3892,27 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>$338,035</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>7.58%</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>-0.65%</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -3924,27 +3924,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>$2,594,886</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>3.45%</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>-26.97%</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -3956,27 +3956,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>$463,763</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>11.20%</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>-0.57%</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -4001,27 +4001,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -4033,27 +4033,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -4065,283 +4065,283 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>68.25%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,959</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$3,985,106,420</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.82%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-12.22%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>68.25%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>69.01%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>526</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$1,914,336,827</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>5.98%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-10.38%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>69.01%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>59.30%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>172</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$178,541,620</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>7.31%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-6.97%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>59.30%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>67.57%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>148</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$174,871,093</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>9.19%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-11.55%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>67.57%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>71.58%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>183</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$222,565,156</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8.74%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-18.88%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>71.58%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>64.52%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>341</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$732,202,576</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>9.36%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-11.86%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>64.52%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>72.81%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>228</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$189,829,637</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>8.24%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-15.47%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>72.81%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7th Congressional district</t>
+          <t>Congressional District 7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>63.07%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>176</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$302,527,480</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>11.66%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-7.50%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>63.07%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8th Congressional district</t>
+          <t>Congressional District 8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>77.84%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>185</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$270,232,031</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>6.28%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-23.81%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>77.84%</t>
         </is>
       </c>
     </row>
@@ -4366,187 +4366,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.66%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>535</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$58,061,134</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>8.99%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-18.31%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.66%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>67.91%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$3,103,692,760</t>
+          <t>511</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.97%</t>
+          <t>$408,903,147</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-6.67%</t>
+          <t>8.40%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>67.26%</t>
+          <t>-14.04%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>71.77%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$408,903,147</t>
+          <t>294</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.40%</t>
+          <t>$75,378,210</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-14.04%</t>
+          <t>8.42%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67.91%</t>
+          <t>-16.02%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>70.45%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$75,378,210</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.42%</t>
+          <t>$328,784,721</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-16.02%</t>
+          <t>7.03%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>71.77%</t>
+          <t>-14.99%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>67.26%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$328,784,721</t>
+          <t>394</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>$3,103,692,760</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-14.99%</t>
+          <t>3.97%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>70.45%</t>
+          <t>-6.67%</t>
         </is>
       </c>
     </row>
@@ -4558,27 +4558,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>63.44%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>93</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$10,286,448</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>36.35%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-7.13%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>63.44%</t>
         </is>
       </c>
     </row>
@@ -4590,27 +4590,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>68.25%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>1,959</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$3,985,106,420</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>7.82%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-12.22%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>68.25%</t>
         </is>
       </c>
     </row>
@@ -4635,155 +4635,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>61.04%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>154</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$133,257,410</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>16.58%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-8.72%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>61.04%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>63.70%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>135</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$305,961,806</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.73%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-9.35%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>63.70%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>50.85%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>59</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$72,124,172</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>13.07%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-3.96%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>50.85%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>71.57%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>204</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$342,131,298</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6.24%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-12.96%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>71.57%</t>
         </is>
       </c>
     </row>
@@ -4795,219 +4795,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>55.07%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>69</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$228,077,343</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>5.09%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-1.96%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>55.07%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>74.23%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>652</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$894,424,928</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>7.68%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-19.60%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>74.23%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$7,523,902</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>4.47%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-0.74%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>73.26%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>172</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$183,943,461</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>8.26%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-27.33%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>73.26%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>54.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$9,626,846</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>8.96%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-1.96%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>54.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$833,321,505</t>
+          <t>426</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.23%</t>
+          <t>$974,713,749</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-4.55%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>61.54%</t>
+          <t>-8.37%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>61.54%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$974,713,749</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>$833,321,505</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-8.37%</t>
+          <t>6.23%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>-4.55%</t>
         </is>
       </c>
     </row>
@@ -5019,27 +5019,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>68.25%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>1,959</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$3,985,106,420</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>7.82%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-12.22%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>68.25%</t>
         </is>
       </c>
     </row>
